--- a/xlsx/奧克拉荷馬州_intext.xlsx
+++ b/xlsx/奧克拉荷馬州_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_奧克拉荷馬州</t>
+    <t>体育运动_体育运动_袋棍球_奧克拉荷馬州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -230,6 +230,12 @@
     <t>路易斯安那購地</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄克拉荷马州</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E%E5%8F%82%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
@@ -444,12 +450,6 @@
   </si>
   <si>
     <t>en-Oklahoma Panhandle State University</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BF%84%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A9%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>东南俄克拉荷马州立大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Southeastern_Oklahoma_State_University</t>
@@ -3098,7 +3098,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -3185,7 +3185,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -3330,7 +3330,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -3498,10 +3498,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3527,10 +3527,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3591,7 +3591,7 @@
         <v>104</v>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -3620,7 +3620,7 @@
         <v>106</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -3794,7 +3794,7 @@
         <v>118</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3823,7 +3823,7 @@
         <v>120</v>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3852,7 +3852,7 @@
         <v>122</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -3939,7 +3939,7 @@
         <v>128</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -3997,7 +3997,7 @@
         <v>132</v>
       </c>
       <c r="G67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -4026,7 +4026,7 @@
         <v>134</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -4055,7 +4055,7 @@
         <v>136</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
